--- a/output/20221115/tables/effort/wald_test_hh.xlsx
+++ b/output/20221115/tables/effort/wald_test_hh.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A5A5A7-B15E-C445-89B9-FE84A7CC24BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500"/>
   </bookViews>
   <sheets>
     <sheet name="HH models" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="13">
   <si>
     <t>Outcome</t>
   </si>
@@ -88,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,16 +103,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,19 +431,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="5.6640625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,14 +470,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.39359426498413086</v>
+      <c r="D2" s="5">
+        <v>0.39003562927246094</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -485,14 +487,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.39513945579528809</v>
+      <c r="D3" s="5">
+        <v>0.52694648504257202</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -502,14 +504,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.45836341381072998</v>
+      <c r="D4" s="5">
+        <v>0.44395053386688232</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -519,14 +521,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.7395748496055603</v>
+      <c r="D5" s="5">
+        <v>0.4259570837020874</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -536,14 +538,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.95869630575180054</v>
+      <c r="D6" s="5">
+        <v>0.9600946307182312</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -553,14 +555,14 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.49294984340667725</v>
+      <c r="D7" s="5">
+        <v>0.54234063625335693</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -570,14 +572,14 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.5289285928010941E-2</v>
+      <c r="D8" s="5">
+        <v>0.04237901046872139</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -587,14 +589,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.60437321662902832</v>
+      <c r="D9" s="5">
+        <v>0.62462961673736572</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -604,14 +606,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.38246056437492371</v>
+      <c r="D10" s="5">
+        <v>0.46919599175453186</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -621,14 +623,14 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.39704379439353943</v>
+      <c r="D11" s="5">
+        <v>0.39174667000770569</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -638,14 +640,14 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.36156192421913147</v>
+      <c r="D12" s="5">
+        <v>0.47304171323776245</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -655,14 +657,14 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.46074551343917847</v>
+      <c r="D13" s="5">
+        <v>0.44625666737556458</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -672,14 +674,14 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.38944357633590698</v>
+      <c r="D14" s="5">
+        <v>0.40668341517448425</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -689,14 +691,14 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.49287569522857666</v>
+      <c r="D15" s="5">
+        <v>0.52286738157272339</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -706,17 +708,17 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.86214041709899902</v>
+      <c r="D16" s="5">
+        <v>0.83491975069046021</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
   </sheetData>
